--- a/Mod_Comparativos.xlsx
+++ b/Mod_Comparativos.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A44"/>
+  <dimension ref="A1:A50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -409,14 +409,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">mujer               -0.122***                       -0.136***                   </t>
+          <t xml:space="preserve">mujer               -0.139***                       -0.142***                   </t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">                     (0.012)                         (0.012)                    </t>
+          <t xml:space="preserve">                     (0.011)                         (0.011)                    </t>
         </is>
       </c>
     </row>
@@ -430,7 +430,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Edad                0.046***                        0.051***                    </t>
+          <t xml:space="preserve">Edad                0.041***                        0.042***                    </t>
         </is>
       </c>
     </row>
@@ -451,14 +451,14 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Edad2              -0.0004***                      -0.0005***                   </t>
+          <t xml:space="preserve">Edad2              -0.0004***                      -0.0004***                   </t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    (0.00004)                       (0.00004)                   </t>
+          <t xml:space="preserve">                    (0.00003)                       (0.00003)                   </t>
         </is>
       </c>
     </row>
@@ -472,7 +472,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Educ                0.238***                        0.247***                    </t>
+          <t xml:space="preserve">Educ                0.140***                        0.147***                    </t>
         </is>
       </c>
     </row>
@@ -493,7 +493,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve">exp                 0.016***                        0.016***                    </t>
+          <t xml:space="preserve">exp                 0.012***                        0.012***                    </t>
         </is>
       </c>
     </row>
@@ -535,7 +535,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tamaño_empresa      0.063***                        0.063***                    </t>
+          <t xml:space="preserve">Tamaño_empresa      0.053***                        0.053***                    </t>
         </is>
       </c>
     </row>
@@ -563,7 +563,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t xml:space="preserve">                     (0.001)                         (0.001)                    </t>
+          <t xml:space="preserve">                    (0.0005)                        (0.0005)                    </t>
         </is>
       </c>
     </row>
@@ -577,14 +577,14 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mujer_Resid                         -0.122***                       -0.136***   </t>
+          <t xml:space="preserve">Sector              0.150***                        0.151***                    </t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t xml:space="preserve">                                     (0.012)                         (0.012)    </t>
+          <t xml:space="preserve">                     (0.016)                         (0.016)                    </t>
         </is>
       </c>
     </row>
@@ -598,14 +598,14 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Constant            6.187***         -0.000         6.138***         -0.000     </t>
+          <t xml:space="preserve">Estrato             0.284***                        0.277***                    </t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t xml:space="preserve">                     (0.072)         (0.006)         (0.071)         (0.006)    </t>
+          <t xml:space="preserve">                     (0.006)                         (0.006)                    </t>
         </is>
       </c>
     </row>
@@ -619,40 +619,82 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>--------------------------------------------------------------------------------</t>
+          <t xml:space="preserve">Mujer_Resid                         -0.139***                       -0.142***   </t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Observations          9,785           9,785           9,785           9,785     </t>
+          <t xml:space="preserve">                                     (0.011)                         (0.011)    </t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t xml:space="preserve">R2                    0.360           0.011           0.371           0.013     </t>
+          <t xml:space="preserve">                                                                                </t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>================================================================================</t>
+          <t xml:space="preserve">Constant            6.269***         -0.000         6.277***          0.000     </t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Note:                                                *p&lt;0.1; **p&lt;0.05; ***p&lt;0.01</t>
+          <t xml:space="preserve">                     (0.065)         (0.005)         (0.065)         (0.005)    </t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                                                                </t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>--------------------------------------------------------------------------------</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Observations          9,785           9,785           9,785           9,785     </t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R2                    0.492           0.017           0.493           0.018     </t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>================================================================================</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Note:                                                *p&lt;0.1; **p&lt;0.05; ***p&lt;0.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
         <is>
           <t xml:space="preserve">                    Notas: (1) y (2) con muestra única y (3) y (4) con Bootstrap</t>
         </is>
